--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shajib\BAIUST\1 Fall 2024\Computer Sessional Lab GED115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shajib\BAIUST\1 Fall 2024\GED-115 Computer Sessional Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>student name</t>
   </si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>0-40 F</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +409,7 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,83 +431,98 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>85</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(MIN(B2:E2)&lt;40,"F",IF(F2&gt;=80,"A+",IF(F2&gt;=70,"A-",IF(F2&gt;=60,"B","C"))))</f>
+        <v>A+</v>
+      </c>
+      <c r="H2">
+        <f>RANK(F2,F$2:F$5,0)</f>
         <v>1</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>64</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(MIN(B3:E3)&lt;40,"F",IF(F3&gt;=80,"A+",IF(F3&gt;=70,"A-",IF(F3&gt;=60,"B","C"))))</f>
+        <v>B</v>
+      </c>
+      <c r="H3">
+        <f>RANK(F3,F$2:F$5,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>76</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>34</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>56</v>
       </c>
-      <c r="F2">
-        <f>ROUND(AVERAGE(B2:E2),0)</f>
-        <v>64</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(F2&gt;=80,"APLUS","Minus")</f>
-        <v>Minus</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>97</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>88</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">ROUND(AVERAGE(B3:E3),0)</f>
-        <v>85</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G5" si="1">IF(F3&gt;=80,"APLUS","Minus")</f>
-        <v>APLUS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F4">
+        <f>AVERAGE(B4:E4)</f>
+        <v>63.75</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(MIN(B4:E4)&lt;40,"F",IF(F4&gt;=80,"A+",IF(F4&gt;=70,"A-",IF(F4&gt;=60,"B","C"))))</f>
+        <v>F</v>
+      </c>
+      <c r="H4">
+        <f>RANK(F4,F$2:F$5,0)</f>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>66</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <v>67</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>Minus</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -518,45 +539,52 @@
         <v>45</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>AVERAGE(B5:E5)</f>
+        <v>63.5</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>Minus</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <f>IF(MIN(B5:E5)&lt;40,"F",IF(F5&gt;=80,"A+",IF(F5&gt;=70,"A-",IF(F5&gt;=60,"B","C"))))</f>
+        <v>B</v>
+      </c>
+      <c r="H5">
+        <f>RANK(F5,F$2:F$5,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H5">
+    <sortCondition ref="H2:H5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>